--- a/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Nouvelle-Galles_du_Sud/Société_linnéenne_de_Nouvelle-Galles_du_Sud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_linnéenne_de_Nouvelle-Galles_du_Sud/Société_linnéenne_de_Nouvelle-Galles_du_Sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_linn%C3%A9enne_de_Nouvelle-Galles_du_Sud</t>
+          <t>Société_linnéenne_de_Nouvelle-Galles_du_Sud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société linnéenne de Nouvelle-Galles du Sud (Linnean Society of New South Wales en anglais) est une société savante faisant partie des nombreuses sociétés linnéennes ainsi nommées en hommage au naturaliste suédois Carl von Linné (1707-1778).
 Elle fut fondée à Sydney, en 1874, par l'entomologiste William John Macleay (1820-1891) et servit notamment de cadre à la conservation des collections du cousin de celui-ci, le naturaliste William Sharp Macleay (1792-1865).
